--- a/Etc/企画書/OperationText.xlsx
+++ b/Etc/企画書/OperationText.xlsx
@@ -659,99 +659,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="4" max="6" width="9" customWidth="1"/>
+    <col min="3" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>3</v>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>3</v>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <v>3</v>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
-        <v>3</v>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,7 +747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -767,7 +755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -775,7 +763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>

--- a/Etc/企画書/OperationText.xlsx
+++ b/Etc/企画書/OperationText.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>タップー１</t>
     <phoneticPr fontId="1"/>
@@ -40,13 +40,6 @@
   </si>
   <si>
     <t>ドラッグー２</t>
-  </si>
-  <si>
-    <t>ピンチー１</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ピンチー２</t>
   </si>
   <si>
     <t>画面に表示される画像の中から、一つほかの画像と違うものを選んでください。</t>
@@ -75,14 +68,6 @@
       <t>エラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正解の場合は、コインがたまり、画像が切り替わります。
-不正解の場合は、制限時間が短くなります。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>繰り返し正解を選んでいって、制限時間が終わる前にたくさんコインを集めましょう。</t>
   </si>
   <si>
     <t>画面に表示される単語を入力してください。
@@ -114,196 +99,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>正解の場合は、コインがたまり、次の文字列が表示されます。
-不正解の場合は、制限時間が短くなります。</t>
-    <rPh sb="0" eb="2">
-      <t>セイカイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>フセイカイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="37" eb="41">
-      <t>セイゲンジカン</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ミジカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正確に文字を入力していって、制限時間が終わる前にたくさんコインを集めましょう。</t>
-    <rPh sb="0" eb="2">
-      <t>セイカク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>セイゲンジカン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>アツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像が画面中央に入って三秒経つと、正解となります。
-正解すると、コインがたまり、目標の画像が変わります。</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>ガメンチュウオウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>3ビョウタ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セイカイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>セイカイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>急いで画像を探して、制限時間が終わる前にたくさんコインを集めましょう。</t>
-    <rPh sb="0" eb="1">
-      <t>イソ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>サガ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>セイゲンジカン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>アツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面を縦にスクロールして、画面左側の目標と書かれている画像を見つけましょう。
-見つけた画像を画面中央の赤い場所に入れてください。</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>ガメンヒダリガワ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="46" eb="50">
-      <t>ガメンチュウオウ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面を横にスワイプして、を見つけましょう。
-見つけたら、画面に映っている状態で、「解答」を押してください。</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ウツ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>正しい画面の状態で「解答」を押すと正解になります。
 正解すると、コインがたまり、の位置が変わります。</t>
     <rPh sb="0" eb="1">
@@ -332,6 +127,180 @@
     </rPh>
     <rPh sb="44" eb="45">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面を横にスワイプして、猫を見つけましょう。
+見つけたら、画面に映っている状態で、「解答」を押してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ネコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面を縦にスクロールして、宝箱を見つけましょう。
+宝箱を画面中央の赤い場所に入れてください。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タカラバコ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タカラバコ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ガメンチュウオウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝箱が画面中央に入って三秒経つと、正解となります。
+正解すると、宝箱の位置が変わります。</t>
+    <rPh sb="0" eb="2">
+      <t>タカラバコ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ガメンチュウオウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>3ビョウタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>タカラバコ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正解の場合は、次の文字列が表示されます。
+不正解の場合は、制限時間が短くなります。</t>
+    <rPh sb="0" eb="2">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>フセイカイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>セイゲンジカン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ミジカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正解の場合は、画像が切り替わります。
+不正解の場合は、制限時間が短くなります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繰り返し正解を選んでいって、制限時間が終わる前にたくさん問題を解きましょう。</t>
+    <rPh sb="28" eb="30">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>急いで画像を探して、制限時間が終わる前にたくさん問題を解きましょう。</t>
+    <rPh sb="0" eb="1">
+      <t>イソ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>セイゲンジカン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -376,9 +345,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -659,81 +631,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="3" max="5" width="9" customWidth="1"/>
+    <col min="3" max="3" width="78.125" customWidth="1"/>
+    <col min="4" max="4" width="57" customWidth="1"/>
+    <col min="5" max="5" width="65.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -753,22 +727,6 @@
       </c>
       <c r="B6" s="1">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Etc/企画書/OperationText.xlsx
+++ b/Etc/企画書/OperationText.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>タップー１</t>
     <phoneticPr fontId="1"/>
@@ -301,6 +301,45 @@
     </rPh>
     <rPh sb="27" eb="28">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正しい数字の配置で「解答」を押すと正解になります。
+配置が正しくないと不正解になります。
+不正解になると、制限時間が短くなります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正確に数字を配置し、制限時間が終わる前にたくさん問題を解きましょう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正しい回答の配置で「解答」を押すと正解になります。
+配置が正しくないと不正解になります。
+不正解になると、制限時間が短くなります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正確に文字を配置し、制限時間が終わる前にたくさん問題を解きましょう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面に表示される数字のピースをドラッグして、
+　１，２，３
+　４，５，６
+　７，８，９
+の順に並び替えてください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面に表示される問題を見て、問題に答えましょう。
+問題下にある白い四角の所に文字のピースをドラッグして解答を完成させましょう。</t>
+    <rPh sb="14" eb="16">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -634,7 +673,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -713,20 +752,38 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
